--- a/glistapp/re-org.xlsx
+++ b/glistapp/re-org.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erickson\Documents\GitHub\smerickson7.github.io\glistapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6519587E-B304-4B82-B9DA-272D35586BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B0F8B-90BB-49D4-A615-945085ACA020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grocerylist-e012f-default-rtdb-" sheetId="1" r:id="rId1"/>
     <sheet name="Stop &amp; Shop" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stop &amp; Shop'!$A$1:$B$126</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -818,9 +821,6 @@
     <t>Brooms</t>
   </si>
   <si>
-    <t>Brith</t>
-  </si>
-  <si>
     <t>Cake Mix</t>
   </si>
   <si>
@@ -1047,12 +1047,15 @@
   </si>
   <si>
     <t>Vinegar</t>
+  </si>
+  <si>
+    <t>Broth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1533,11 +1536,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1893,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,1032 +2794,1039 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="3">
-        <v>17</v>
+        <v>253</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="3">
-        <v>19</v>
+        <v>256</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20</v>
+        <v>261</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
+        <v>341</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="3">
-        <v>17</v>
+        <v>281</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
+        <v>297</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
+        <v>314</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="3">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15</v>
+        <v>259</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="3">
-        <v>19</v>
+        <v>263</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="3">
-        <v>19</v>
+        <v>274</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="3">
-        <v>19</v>
+        <v>276</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>243</v>
+        <v>299</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B16" s="3">
-        <v>9</v>
+        <v>306</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="3">
-        <v>9</v>
+        <v>311</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="3">
-        <v>9</v>
+        <v>327</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="3">
-        <v>17</v>
+        <v>333</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10</v>
+        <v>337</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6</v>
+        <v>339</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B22" s="3">
-        <v>18</v>
+        <v>267</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="3">
-        <v>19</v>
+        <v>316</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="3">
-        <v>20</v>
+        <v>328</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
+        <v>332</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="3">
-        <v>7</v>
+        <v>249</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
+        <v>262</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B29" s="3">
-        <v>9</v>
+        <v>275</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" s="3">
-        <v>20</v>
+        <v>254</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B31" s="3">
-        <v>4</v>
+        <v>255</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>260</v>
-      </c>
-      <c r="B32" s="3">
-        <v>12</v>
+        <v>308</v>
+      </c>
+      <c r="B32" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3</v>
+        <v>320</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="3">
-        <v>15</v>
+        <v>336</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36" s="3">
-        <v>4</v>
+        <v>284</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>264</v>
-      </c>
-      <c r="B37" s="3">
-        <v>20</v>
+        <v>305</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3</v>
+        <v>331</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>147</v>
+        <v>244</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" s="3">
+        <v>245</v>
+      </c>
+      <c r="B40" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="3">
-        <v>20</v>
+        <v>246</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5</v>
+        <v>257</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" s="3">
-        <v>10</v>
+        <v>265</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="3">
-        <v>16</v>
+        <v>278</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="3">
-        <v>10</v>
+        <v>285</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="3">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>272</v>
+        <v>296</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>273</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>274</v>
+        <v>136</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>275</v>
-      </c>
-      <c r="B49" s="3">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>276</v>
-      </c>
-      <c r="B50" s="3">
-        <v>6</v>
+        <v>309</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="3">
-        <v>4</v>
+        <v>155</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="3">
-        <v>10</v>
+        <v>312</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="3">
+        <v>315</v>
+      </c>
+      <c r="B53" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="3">
-        <v>10</v>
+        <v>317</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" s="3">
-        <v>10</v>
+        <v>318</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>282</v>
-      </c>
-      <c r="B56" s="3">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" s="3">
-        <v>10</v>
+        <v>319</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="3">
-        <v>10</v>
+        <v>334</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>285</v>
-      </c>
-      <c r="B59" s="3">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>286</v>
-      </c>
-      <c r="B60" s="3">
-        <v>9</v>
+        <v>232</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B61" s="3">
+        <v>248</v>
+      </c>
+      <c r="B61" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" s="3">
-        <v>9</v>
+        <v>268</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>289</v>
-      </c>
-      <c r="B63" s="3">
-        <v>11</v>
+        <v>269</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>290</v>
-      </c>
-      <c r="B64" s="3">
-        <v>11</v>
+        <v>277</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="3">
-        <v>11</v>
+        <v>279</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>292</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>237</v>
+        <v>280</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>293</v>
-      </c>
-      <c r="B67" s="3">
+        <v>282</v>
+      </c>
+      <c r="B67" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>294</v>
-      </c>
-      <c r="B68" s="3">
+        <v>283</v>
+      </c>
+      <c r="B68" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="B69" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>297</v>
-      </c>
-      <c r="B70" s="3">
-        <v>9</v>
+        <v>292</v>
+      </c>
+      <c r="B70" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>298</v>
-      </c>
-      <c r="B71" s="3">
-        <v>3</v>
+        <v>293</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>299</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>274</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="3">
+        <v>300</v>
+      </c>
+      <c r="B73" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>300</v>
-      </c>
-      <c r="B74" s="3">
-        <v>4</v>
+        <v>310</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>301</v>
-      </c>
-      <c r="B75" s="3">
+        <v>100</v>
+      </c>
+      <c r="B75" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>302</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>303</v>
+        <v>91</v>
+      </c>
+      <c r="B76" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>304</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>303</v>
+        <v>164</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>305</v>
-      </c>
-      <c r="B78" s="3">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="B78" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>306</v>
-      </c>
-      <c r="B79" s="3">
-        <v>8</v>
+        <v>326</v>
+      </c>
+      <c r="B79" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="3">
-        <v>9</v>
+        <v>329</v>
+      </c>
+      <c r="B80" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>307</v>
-      </c>
-      <c r="B81" s="3">
-        <v>4</v>
+        <v>330</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>308</v>
-      </c>
-      <c r="B82" s="3">
-        <v>9</v>
+        <v>338</v>
+      </c>
+      <c r="B82" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>309</v>
-      </c>
-      <c r="B83" s="3">
-        <v>7</v>
+        <v>340</v>
+      </c>
+      <c r="B83" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>310</v>
-      </c>
-      <c r="B84" s="3">
-        <v>9</v>
+        <v>288</v>
+      </c>
+      <c r="B84" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="3">
-        <v>9</v>
+        <v>289</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>311</v>
-      </c>
-      <c r="B86" s="3">
-        <v>10</v>
+        <v>290</v>
+      </c>
+      <c r="B86" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>296</v>
+        <v>40</v>
+      </c>
+      <c r="B87" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
-      </c>
-      <c r="B88" s="3">
-        <v>4</v>
+        <v>323</v>
+      </c>
+      <c r="B88" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>313</v>
-      </c>
-      <c r="B89" s="3">
-        <v>9</v>
+        <v>335</v>
+      </c>
+      <c r="B89" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>314</v>
-      </c>
-      <c r="B90" s="3">
-        <v>15</v>
+        <v>260</v>
+      </c>
+      <c r="B90" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="3">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="B91" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>315</v>
-      </c>
-      <c r="B92" s="3">
-        <v>3</v>
+        <v>322</v>
+      </c>
+      <c r="B92" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>316</v>
-      </c>
-      <c r="B93" s="3">
-        <v>9</v>
+        <v>238</v>
+      </c>
+      <c r="B93" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>317</v>
-      </c>
-      <c r="B94" s="3">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="3">
-        <v>10</v>
+        <v>313</v>
+      </c>
+      <c r="B95" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>318</v>
-      </c>
-      <c r="B96" s="3">
-        <v>9</v>
+        <v>321</v>
+      </c>
+      <c r="B96" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>319</v>
-      </c>
-      <c r="B97" s="3">
-        <v>9</v>
+        <v>325</v>
+      </c>
+      <c r="B97" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="3">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="B98" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>164</v>
-      </c>
-      <c r="B99" s="3">
-        <v>10</v>
+        <v>229</v>
+      </c>
+      <c r="B99" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>320</v>
-      </c>
-      <c r="B100" s="3">
-        <v>9</v>
+        <v>233</v>
+      </c>
+      <c r="B100" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="3">
-        <v>19</v>
+        <v>236</v>
+      </c>
+      <c r="B101" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" s="3">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="B102" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>322</v>
-      </c>
-      <c r="B103" s="3">
-        <v>15</v>
+        <v>250</v>
+      </c>
+      <c r="B103" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="3">
-        <v>12</v>
+        <v>230</v>
+      </c>
+      <c r="B104" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" s="3">
-        <v>10</v>
+        <v>239</v>
+      </c>
+      <c r="B105" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>80</v>
-      </c>
-      <c r="B106" s="3">
-        <v>7</v>
+        <v>240</v>
+      </c>
+      <c r="B106" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="3">
-        <v>11</v>
+        <v>241</v>
+      </c>
+      <c r="B107" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>324</v>
-      </c>
-      <c r="B108" s="3">
-        <v>11</v>
+        <v>251</v>
+      </c>
+      <c r="B108" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>325</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>303</v>
+        <v>22</v>
+      </c>
+      <c r="B109" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>326</v>
-      </c>
-      <c r="B110" s="3">
-        <v>15</v>
+        <v>231</v>
+      </c>
+      <c r="B110" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>327</v>
-      </c>
-      <c r="B111" s="3">
-        <v>10</v>
+        <v>252</v>
+      </c>
+      <c r="B111" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>328</v>
-      </c>
-      <c r="B112" s="3">
-        <v>4</v>
+        <v>258</v>
+      </c>
+      <c r="B112" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>329</v>
-      </c>
-      <c r="B113" s="3">
-        <v>5</v>
+        <v>264</v>
+      </c>
+      <c r="B113" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>330</v>
-      </c>
-      <c r="B114" s="3">
-        <v>10</v>
+        <v>266</v>
+      </c>
+      <c r="B114" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>331</v>
-      </c>
-      <c r="B115" s="3">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>332</v>
-      </c>
-      <c r="B116" s="3">
-        <v>8</v>
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>333</v>
-      </c>
-      <c r="B117" s="3">
-        <v>5</v>
+        <v>272</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>334</v>
-      </c>
-      <c r="B118" s="3">
-        <v>4</v>
+        <v>298</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" s="3">
-        <v>9</v>
+        <v>270</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="3">
-        <v>9</v>
+        <v>294</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>336</v>
-      </c>
-      <c r="B121" s="3">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>337</v>
-      </c>
-      <c r="B122" s="3">
-        <v>7</v>
+        <v>128</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>338</v>
-      </c>
-      <c r="B123" s="3">
-        <v>4</v>
+        <v>291</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>339</v>
-      </c>
-      <c r="B124" s="3">
-        <v>10</v>
+        <v>301</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>340</v>
-      </c>
-      <c r="B125" s="3">
-        <v>4</v>
+        <v>303</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="3">
-        <v>10</v>
+        <v>324</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B126" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B126">
+      <sortCondition ref="B1:B126"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>